--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H2">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I2">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J2">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>105.1617951382156</v>
+        <v>58.33529349097957</v>
       </c>
       <c r="R2">
-        <v>946.45615624394</v>
+        <v>525.0176414188161</v>
       </c>
       <c r="S2">
-        <v>0.006585289177632926</v>
+        <v>0.004733154775573438</v>
       </c>
       <c r="T2">
-        <v>0.007839438743964745</v>
+        <v>0.005167574302448334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H3">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I3">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J3">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>897.0559019760082</v>
+        <v>764.6394396350322</v>
       </c>
       <c r="R3">
-        <v>8073.503117784073</v>
+        <v>6881.754956715289</v>
       </c>
       <c r="S3">
-        <v>0.05617413163449912</v>
+        <v>0.06204060353034793</v>
       </c>
       <c r="T3">
-        <v>0.06687233499780183</v>
+        <v>0.06773482882206608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H4">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I4">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J4">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>1078.041964777022</v>
+        <v>744.1134420730168</v>
       </c>
       <c r="R4">
-        <v>9702.377682993199</v>
+        <v>6697.020978657152</v>
       </c>
       <c r="S4">
-        <v>0.0675075779597492</v>
+        <v>0.06037518423492459</v>
       </c>
       <c r="T4">
-        <v>0.08036420389348889</v>
+        <v>0.06591655362045098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H5">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I5">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J5">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>2253.311402634162</v>
+        <v>812.8997002446711</v>
       </c>
       <c r="R5">
-        <v>13519.86841580497</v>
+        <v>4877.398201468027</v>
       </c>
       <c r="S5">
-        <v>0.1411035935065668</v>
+        <v>0.06595629966051744</v>
       </c>
       <c r="T5">
-        <v>0.1119842473134586</v>
+        <v>0.04800661086473465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H6">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I6">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J6">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>1088.167041029471</v>
+        <v>1142.182417572257</v>
       </c>
       <c r="R6">
-        <v>9793.50336926524</v>
+        <v>10279.64175815031</v>
       </c>
       <c r="S6">
-        <v>0.06814161577719351</v>
+        <v>0.09267333445650865</v>
       </c>
       <c r="T6">
-        <v>0.08111899240727113</v>
+        <v>0.1011791002760171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.719806</v>
       </c>
       <c r="I7">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J7">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>13.21678622974889</v>
+        <v>8.601259982087111</v>
       </c>
       <c r="R7">
-        <v>118.95107606774</v>
+        <v>77.411339838784</v>
       </c>
       <c r="S7">
-        <v>0.0008276423886399065</v>
+        <v>0.0006978810309141496</v>
       </c>
       <c r="T7">
-        <v>0.000985264524098455</v>
+        <v>0.0007619341121337387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.719806</v>
       </c>
       <c r="I8">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J8">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
         <v>112.742427770168</v>
@@ -948,10 +948,10 @@
         <v>1014.681849931512</v>
       </c>
       <c r="S8">
-        <v>0.007059992542720943</v>
+        <v>0.009147590223277597</v>
       </c>
       <c r="T8">
-        <v>0.008404548012787939</v>
+        <v>0.009987176504577738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.719806</v>
       </c>
       <c r="I9">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J9">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>135.488845320962</v>
+        <v>109.7159676144498</v>
       </c>
       <c r="R9">
-        <v>1219.399607888658</v>
+        <v>987.4437085300478</v>
       </c>
       <c r="S9">
-        <v>0.008484385661251204</v>
+        <v>0.008902032114594461</v>
       </c>
       <c r="T9">
-        <v>0.01010021274349862</v>
+        <v>0.009719080523703112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.719806</v>
       </c>
       <c r="I10">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J10">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>283.197287365902</v>
+        <v>119.858172347179</v>
       </c>
       <c r="R10">
-        <v>1699.183724195412</v>
+        <v>719.149034083074</v>
       </c>
       <c r="S10">
-        <v>0.01773396915842456</v>
+        <v>0.009724940887188258</v>
       </c>
       <c r="T10">
-        <v>0.01407423538078667</v>
+        <v>0.00707834513544224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.719806</v>
       </c>
       <c r="I11">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J11">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>136.7613698933378</v>
+        <v>168.4093339142433</v>
       </c>
       <c r="R11">
-        <v>1230.85232904004</v>
+        <v>1515.68400522819</v>
       </c>
       <c r="S11">
-        <v>0.008564071846559509</v>
+        <v>0.01366423986862429</v>
       </c>
       <c r="T11">
-        <v>0.01019507493582063</v>
+        <v>0.01491837435192222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H12">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I12">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J12">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>63.58764055589</v>
+        <v>58.22596032713601</v>
       </c>
       <c r="R12">
-        <v>572.28876500301</v>
+        <v>524.0336429442241</v>
       </c>
       <c r="S12">
-        <v>0.003981892859793383</v>
+        <v>0.004724283803035093</v>
       </c>
       <c r="T12">
-        <v>0.004740233012910954</v>
+        <v>0.005157889132218228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H13">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I13">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J13">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>542.4181679137321</v>
+        <v>763.2063372345482</v>
       </c>
       <c r="R13">
-        <v>4881.763511223588</v>
+        <v>6868.857035110933</v>
       </c>
       <c r="S13">
-        <v>0.03396652259709981</v>
+        <v>0.06192432580095267</v>
       </c>
       <c r="T13">
-        <v>0.04043535007541942</v>
+        <v>0.0676078788627132</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H14">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I14">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J14">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>651.8540775222631</v>
+        <v>742.718809904192</v>
       </c>
       <c r="R14">
-        <v>5866.686697700366</v>
+        <v>6684.469289137727</v>
       </c>
       <c r="S14">
-        <v>0.04081945916253493</v>
+        <v>0.0602620278673979</v>
       </c>
       <c r="T14">
-        <v>0.04859340888982602</v>
+        <v>0.06579301150853717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H15">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I15">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J15">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>1362.498189983073</v>
+        <v>811.3761475067566</v>
       </c>
       <c r="R15">
-        <v>8174.989139898438</v>
+        <v>4868.25688504054</v>
       </c>
       <c r="S15">
-        <v>0.08532038249487259</v>
+        <v>0.06583268305578717</v>
       </c>
       <c r="T15">
-        <v>0.06771293754287014</v>
+        <v>0.0479166359226859</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H16">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I16">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J16">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>657.97635518494</v>
+        <v>1140.041716635885</v>
       </c>
       <c r="R16">
-        <v>5921.78719666446</v>
+        <v>10260.37544972296</v>
       </c>
       <c r="S16">
-        <v>0.04120283954113631</v>
+        <v>0.09249964425536772</v>
       </c>
       <c r="T16">
-        <v>0.04904980296951075</v>
+        <v>0.1009894683999088</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H17">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I17">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J17">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N17">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O17">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P17">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q17">
-        <v>23.13077949411833</v>
+        <v>4.733325866789333</v>
       </c>
       <c r="R17">
-        <v>138.78467696471</v>
+        <v>28.399955200736</v>
       </c>
       <c r="S17">
-        <v>0.001448462073822828</v>
+        <v>0.0003840481908984223</v>
       </c>
       <c r="T17">
-        <v>0.001149545033320444</v>
+        <v>0.0002795313282986144</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H18">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I18">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J18">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P18">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q18">
-        <v>197.311221582258</v>
+        <v>62.04284613655801</v>
       </c>
       <c r="R18">
-        <v>1183.867329493548</v>
+        <v>372.257076819348</v>
       </c>
       <c r="S18">
-        <v>0.01235573670460286</v>
+        <v>0.005033974733097487</v>
       </c>
       <c r="T18">
-        <v>0.009805901043929336</v>
+        <v>0.003664002792130285</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H19">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I19">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J19">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N19">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O19">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P19">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q19">
-        <v>237.1198679129595</v>
+        <v>60.37736664056533</v>
       </c>
       <c r="R19">
-        <v>1422.719207477757</v>
+        <v>362.264199843392</v>
       </c>
       <c r="S19">
-        <v>0.0148485759292779</v>
+        <v>0.00489884260710079</v>
       </c>
       <c r="T19">
-        <v>0.01178429661353408</v>
+        <v>0.003565646222379737</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H20">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I20">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J20">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N20">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O20">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P20">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q20">
-        <v>495.6253277857246</v>
+        <v>65.95868380894275</v>
       </c>
       <c r="R20">
-        <v>1982.501311142898</v>
+        <v>263.834735235771</v>
       </c>
       <c r="S20">
-        <v>0.03103632933365582</v>
+        <v>0.005351694327364794</v>
       </c>
       <c r="T20">
-        <v>0.01642093771169768</v>
+        <v>0.002596837687612164</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H21">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I21">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J21">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N21">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O21">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P21">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q21">
-        <v>239.3469210537767</v>
+        <v>92.6766843561475</v>
       </c>
       <c r="R21">
-        <v>1436.08152632266</v>
+        <v>556.060106136885</v>
       </c>
       <c r="S21">
-        <v>0.01498803521605559</v>
+        <v>0.007519514600752644</v>
       </c>
       <c r="T21">
-        <v>0.01189497588733971</v>
+        <v>0.005473114974430796</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H22">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I22">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J22">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N22">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O22">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P22">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q22">
-        <v>104.6467799337155</v>
+        <v>74.23175510655646</v>
       </c>
       <c r="R22">
-        <v>941.8210194034399</v>
+        <v>668.0857959590081</v>
       </c>
       <c r="S22">
-        <v>0.006553038643605309</v>
+        <v>0.006022947090102926</v>
       </c>
       <c r="T22">
-        <v>0.007801046187594043</v>
+        <v>0.006575746639100996</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H23">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I23">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J23">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P23">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q23">
-        <v>892.6626959814081</v>
+        <v>973.0049208817162</v>
       </c>
       <c r="R23">
-        <v>8033.964263832672</v>
+        <v>8757.044287935445</v>
       </c>
       <c r="S23">
-        <v>0.05589902667025495</v>
+        <v>0.07894676811114155</v>
       </c>
       <c r="T23">
-        <v>0.06654483707672679</v>
+        <v>0.08619267898397781</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H24">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I24">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J24">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N24">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O24">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P24">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q24">
-        <v>1072.762404816872</v>
+        <v>946.8855558599751</v>
       </c>
       <c r="R24">
-        <v>9654.861643351847</v>
+        <v>8521.970002739776</v>
       </c>
       <c r="S24">
-        <v>0.06717696902498781</v>
+        <v>0.07682751937012482</v>
       </c>
       <c r="T24">
-        <v>0.07997063142880924</v>
+        <v>0.08387892085565901</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H25">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I25">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J25">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N25">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O25">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P25">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q25">
-        <v>2242.276124743512</v>
+        <v>1034.416180388061</v>
       </c>
       <c r="R25">
-        <v>13453.65674846107</v>
+        <v>6206.497082328364</v>
       </c>
       <c r="S25">
-        <v>0.1404125583642895</v>
+        <v>0.0839294977557842</v>
       </c>
       <c r="T25">
-        <v>0.111435820102273</v>
+        <v>0.06108848979662338</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H26">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I26">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J26">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N26">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O26">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P26">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q26">
-        <v>1082.837894922471</v>
+        <v>1453.428969571379</v>
       </c>
       <c r="R26">
-        <v>9745.541054302239</v>
+        <v>13080.86072614241</v>
       </c>
       <c r="S26">
-        <v>0.06780790173077268</v>
+        <v>0.1179269676486208</v>
       </c>
       <c r="T26">
-        <v>0.08072172347126109</v>
+        <v>0.1287505683802277</v>
       </c>
     </row>
   </sheetData>
